--- a/data/list2_reference_categories.xlsx
+++ b/data/list2_reference_categories.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\al_files\PycharmProjects\Python\CreditRiskModelingPython2020\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\al_files\PycharmProjects\Python\CreditRiskModelingPython2022\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3214DAA-B1EE-4A59-BFC8-78338D912FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D65868B-678B-46DD-AA34-42A8D6FB58FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="1170" windowWidth="16650" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PD_ref_cat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -354,7 +354,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
